--- a/docs/ST4/ST4_24.07.24_output.xlsx
+++ b/docs/ST4/ST4_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1293 +505,1534 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731445426.944003</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731445427.125591</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445426.944003.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445427.125591.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>296.22</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.32000000000005</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731445434.9522738</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731445434.9522738.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731445434.9522738.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.26</v>
       </c>
-      <c r="J4" t="n">
-        <v>296.26</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731445435.708649</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731445437.7194462</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445435.708649.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445437.7194462.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>136.38</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>136.11</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731445446.8129954</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731445447.6302454</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445446.8129954.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445447.6302454.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7008.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6971</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>37.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731445451.0342672</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731445451.3667517</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445451.0342672.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445451.3667517.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6950</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6963.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731445452.300174</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731445452.4210465</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445452.300174.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445452.4210465.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6953</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6961</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731445454.2960238</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731445454.6671774</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445454.2960238.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445454.6671774.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6946</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6958.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731445456.777555</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731445461.774318</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445456.777555.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445461.774318.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>535.65</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>536.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.8000000000000682</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731445461.7892787</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731445461.7892787.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731445461.7892787.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>536.45</v>
       </c>
-      <c r="J11" t="n">
-        <v>536.45</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>537</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5499999999999545</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731445476.8530388</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731445476.8530388.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731445476.8530388.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1086</v>
       </c>
-      <c r="J12" t="n">
-        <v>1086</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.400000000000091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731445482.4893994</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731445484.6525037</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445482.4893994.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445484.6525037.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.94</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>131</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.060000000000002</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731445493.5140014</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731445497.859122</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445493.5140014.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445497.859122.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>170.26</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>171.76</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731445498.8668687</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731445499.1332986</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445498.8668687.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445499.1332986.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>53.23</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>53.34</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1100000000000065</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731445504.6590126</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731445504.8198166</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445504.6590126.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445504.8198166.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>53.745</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>53.675</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731445514.9989293</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731445515.06086</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445514.9989293.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445515.06086.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1468.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1465.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731445515.182664</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731445515.5355418</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445515.182664.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445515.5355418.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1468.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1466.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731445526.527614</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731445528.922097</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445526.527614.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445528.922097.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>64.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>64.23</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731445551.2538035</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731445551.3418322</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445551.2538035.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445551.3418322.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>91.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731445555.8702998</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731445556.2194176</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445555.8702998.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731445556.2194176.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>89.16</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731445569.8825471</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731445570.276875</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445569.8825471.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445570.276875.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>363.92</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>363.28</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.6400000000000432</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731445570.839003</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731445571.302716</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445570.839003.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731445571.302716.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>366.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>371.56</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-5.160000000000025</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731445573.3753765</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731445575.7401664</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445573.3753765.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/FEES1731445575.7401664.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.10028</v>
       </c>
-      <c r="K24" t="n">
-        <v>-0.00068</v>
+      <c r="M24" t="n">
+        <v>-0.0006799999999999862</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731445597.6664057</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731445602.0510054</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445597.6664057.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445602.0510054.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.105</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>37.98</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731445602.1389387</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731445603.3159094</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445602.1389387.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731445603.3159094.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>37.905</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>38.03</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731445607.2967849</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731445607.3871775</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445607.2967849.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445607.3871775.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>664.9</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>663.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.299999999999955</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731445610.2309089</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731445611.8812375</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445610.2309089.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/TATN1731445611.8812375.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>664.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>665.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.8999999999999773</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -1790,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,6 +2075,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1835,6 +2101,12 @@
       <c r="D2" t="n">
         <v>17.875</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1851,6 +2123,12 @@
       <c r="D3" t="n">
         <v>0.480000000000004</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1867,6 +2145,12 @@
       <c r="D4" t="n">
         <v>-2.259999999999991</v>
       </c>
+      <c r="E4" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1883,6 +2167,12 @@
       <c r="D5" t="n">
         <v>2.100000000000023</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1899,6 +2189,12 @@
       <c r="D6" t="n">
         <v>0.09000000000000341</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1907,13 +2203,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8000000000000682</v>
+        <v>-0.2500000000001137</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4000000000000341</v>
+        <v>-0.1250000000000568</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.04999999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8">
@@ -1931,6 +2233,12 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1939,13 +2247,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.32000000000005</v>
+        <v>0.08000000000004093</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.160000000000025</v>
+        <v>0.04000000000002046</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -1963,6 +2277,12 @@
       <c r="D10" t="n">
         <v>0.1999999999999886</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.06000000000000003</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1979,6 +2299,12 @@
       <c r="D11" t="n">
         <v>-0.03000000000000114</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1987,13 +2313,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00068</v>
+        <v>-0.0006799999999999862</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00068</v>
+        <v>-0.0006799999999999862</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.68</v>
       </c>
     </row>
     <row r="13">
@@ -2011,6 +2343,12 @@
       <c r="D13" t="n">
         <v>0.2699999999999818</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2027,6 +2365,12 @@
       <c r="D14" t="n">
         <v>-1.060000000000002</v>
       </c>
+      <c r="E14" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2043,6 +2387,12 @@
       <c r="D15" t="n">
         <v>-1.5</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2051,13 +2401,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.400000000000091</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.400000000000091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
@@ -2073,6 +2429,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
